--- a/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="D20" t="n">
         <v>282</v>
       </c>
       <c r="E20" t="n">
-        <v>53274868</v>
+        <v>53358905</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33937</v>
+        <v>33938</v>
       </c>
       <c r="D26" t="n">
         <v>6480</v>
       </c>
       <c r="E26" t="n">
-        <v>203946603</v>
+        <v>203949247</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10555</v>
+        <v>10556</v>
       </c>
       <c r="D44" t="n">
         <v>1534</v>
       </c>
       <c r="E44" t="n">
-        <v>42603661</v>
+        <v>42605161</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3444,13 +3444,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D74" t="n">
         <v>150</v>
       </c>
       <c r="E74" t="n">
-        <v>4266554</v>
+        <v>4274646</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="D77" t="n">
         <v>592</v>
       </c>
       <c r="E77" t="n">
-        <v>8326939</v>
+        <v>8328779</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409143</v>
+        <v>409150</v>
       </c>
       <c r="D92" t="n">
         <v>70906</v>
       </c>
       <c r="E92" t="n">
-        <v>1595430205</v>
+        <v>1595480068</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94198</v>
+        <v>94199</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>917903086</v>
+        <v>917978553</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50769</v>
+        <v>50772</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>932656532</v>
+        <v>932793689</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17292</v>
+        <v>17294</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>794218940</v>
+        <v>794330219</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="D97" t="n">
         <v>375</v>
       </c>
       <c r="E97" t="n">
-        <v>214088295</v>
+        <v>214111625</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D110" t="n">
         <v>71</v>
       </c>
       <c r="E110" t="n">
-        <v>16649846</v>
+        <v>16698678</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -6191,13 +6191,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>80473</v>
+        <v>80474</v>
       </c>
       <c r="D141" t="n">
         <v>15006</v>
       </c>
       <c r="E141" t="n">
-        <v>280709550</v>
+        <v>280718664</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>226090</v>
+        <v>226092</v>
       </c>
       <c r="D174" t="n">
         <v>40899</v>
       </c>
       <c r="E174" t="n">
-        <v>900587214</v>
+        <v>900594909</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
